--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T11:05:16+00:00</t>
+    <t>2022-09-01T00:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:31:30+00:00</t>
+    <t>2022-09-02T09:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1896,7 +1896,7 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation がつくりゃれる元の関連する測定</t>
+    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
